--- a/generators/config.xlsx
+++ b/generators/config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -47,265 +47,433 @@
     <t>Url</t>
   </si>
   <si>
-    <t>以哲百科</t>
-  </si>
-  <si>
-    <t>目录</t>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s?__biz=MzIxOTIxMzE5OA==&amp;mid=401876719&amp;idx=1&amp;sn=deae9f1337c3fb8e4b7fa6c2350029a1&amp;scene=1&amp;srcid=0310bKaHKTCnxiqP8EUPHGMt#wechat_redirect</t>
-  </si>
-  <si>
     <t>七部百科</t>
   </si>
   <si>
     <t>古代四部曲</t>
   </si>
   <si>
-    <t>苏轼，列奥纳多达芬奇，王阳明，本杰明富兰克林</t>
-  </si>
-  <si>
     <t>http://mp.weixin.qq.com/s?__biz=MzIxOTIxMzE5OA==&amp;mid=401884866&amp;idx=1&amp;sn=0c63628eb0fd0b4ec103c784df2a3ea6&amp;scene=0&amp;previewkey=WYoThbXMDsiMiR412ovxvcNS9bJajjJKzz%2F0By7ITJA%3D#wechat_redirect</t>
   </si>
   <si>
     <t>近现三部曲</t>
   </si>
   <si>
-    <t>尼古拉特斯拉，查理芒格，艾伦马斯克，百科式人生的弊端，最后感慨从多才多艺变成了强调术业有专攻</t>
-  </si>
-  <si>
     <t>http://mp.weixin.qq.com/s?__biz=MzIxOTIxMzE5OA==&amp;mid=401895642&amp;idx=1&amp;sn=7f19c55f36bacba502f1edca4725d1fb&amp;scene=0#wechat_redirect</t>
   </si>
   <si>
-    <t>互联网野兽</t>
-  </si>
-  <si>
     <t>补贴战争</t>
   </si>
   <si>
-    <t>类比角度，经济角度</t>
-  </si>
-  <si>
     <t>http://mp.weixin.qq.com/s?__biz=MzIxOTIxMzE5OA==&amp;mid=401907506&amp;idx=1&amp;sn=fb848b796f085c8b5b33bd33e3d368fa&amp;scene=0#wechat</t>
   </si>
   <si>
     <t>商家上帝</t>
   </si>
   <si>
-    <t>成本价格角度</t>
-  </si>
-  <si>
     <t>烧钱为王</t>
   </si>
   <si>
-    <t>分析烧钱的错误方式，分析烧到哪里去了</t>
-  </si>
-  <si>
     <t>草木皆兵</t>
   </si>
   <si>
-    <t>分析应该怎么烧，不点名批评饿了么的盲目扩张</t>
-  </si>
-  <si>
     <t>商业模式</t>
   </si>
   <si>
-    <t>明明没有商业模式，又为何要干呢</t>
-  </si>
-  <si>
     <t>估值迷雾</t>
   </si>
   <si>
-    <t>未来市场全部变现</t>
-  </si>
-  <si>
     <t>全民物流</t>
   </si>
   <si>
-    <t>反思物流行业的价值</t>
-  </si>
-  <si>
     <t>企业与家</t>
   </si>
   <si>
-    <t>十二个字；国内更多是商界大佬而非企业家</t>
-  </si>
-  <si>
     <t>非典型程序猿</t>
   </si>
   <si>
-    <t>化万变为不变</t>
-  </si>
-  <si>
-    <t>简单的自我介绍</t>
-  </si>
-  <si>
-    <t>六过猿门不入</t>
-  </si>
-  <si>
-    <t>打字游戏，小学PCLogo，幻灯片，做网站学PS，再到幻灯片，半路出家</t>
-  </si>
-  <si>
     <t>探讨学习函数</t>
   </si>
   <si>
-    <t>对学习能力求导是什么？求积分是知识</t>
-  </si>
-  <si>
     <t>生活技巧推荐</t>
   </si>
   <si>
-    <t>快速记忆，HIIT，多餐，多项休息</t>
-  </si>
-  <si>
     <t>电脑软件推荐</t>
   </si>
   <si>
-    <t>evernote,bitsync,mindmanager,excel,github,latex,微信电脑版,notepad++, 福利一xmlbar 福利二idm</t>
-  </si>
-  <si>
     <t>浏览插件推荐</t>
   </si>
   <si>
-    <t>onetab,fatkun,adblock,(evernote,idm,xmlbar),福利三netvideohunter</t>
-  </si>
-  <si>
-    <t>快捷操作推荐</t>
-  </si>
-  <si>
-    <t>ctrl+w,ctrl+shift+esc,ctrl+1/2/3,ctrl+page</t>
-  </si>
-  <si>
-    <t>三位一体媒体</t>
-  </si>
-  <si>
-    <t>结合evernote+excel+github+python</t>
-  </si>
-  <si>
     <t>大千信息世界</t>
   </si>
   <si>
-    <t>以哲读书的心得</t>
-  </si>
-  <si>
-    <t>形而上杂谈</t>
-  </si>
-  <si>
-    <t>前十讲</t>
-  </si>
-  <si>
-    <t>风林火山，冷暖自知，动态人格，舍尔后得，不动如峰，再思而行，分而治之，自因自果，积极入世，顺其自然</t>
-  </si>
-  <si>
-    <t>中十讲</t>
-  </si>
-  <si>
-    <t>辩证统一,化整为零，化零为整，化繁为简，循序渐进</t>
-  </si>
-  <si>
-    <t>后十讲</t>
-  </si>
-  <si>
-    <t>信息黑洞，统计规律，超人哲学，时间成本，二八法则，加速世界，准入门槛，加减思维，逆向排除，</t>
-  </si>
-  <si>
-    <t>明明没有商业模式，又为何要敢呢</t>
-  </si>
-  <si>
-    <t>商场如战场</t>
-  </si>
-  <si>
-    <t>搓麻将谈股市</t>
-  </si>
-  <si>
-    <t>股市谋利的人是两批，股民其实是在打麻将</t>
-  </si>
-  <si>
     <t>农村包围城市</t>
   </si>
   <si>
-    <t>农村：小微、传统、小本买卖；城市：巨头，互联网，资本游戏</t>
-  </si>
-  <si>
     <t>微商这陨石坑</t>
   </si>
   <si>
-    <t>精准营销，换位思考</t>
-  </si>
-  <si>
-    <t>当亲爹落草后</t>
-  </si>
-  <si>
-    <t>谷大哥和果大叔不断升级软硬件的</t>
-  </si>
-  <si>
     <t>亲子演武场</t>
   </si>
   <si>
     <t>所谓财商</t>
   </si>
   <si>
-    <t>金钱观教育的二三事</t>
-  </si>
-  <si>
     <t>堵出未来</t>
   </si>
   <si>
-    <t>性教育二三事</t>
-  </si>
-  <si>
     <t>隔墙有耳</t>
   </si>
   <si>
-    <t>同学聚会，人力问题，商业问题</t>
-  </si>
-  <si>
     <t>区别对待</t>
   </si>
   <si>
-    <t>性别歧视，地域歧视，智力歧视</t>
-  </si>
-  <si>
-    <t>理发有风险</t>
-  </si>
-  <si>
     <t>用户体验</t>
   </si>
   <si>
-    <t>拼命劝消费，防不慎防的消费</t>
-  </si>
-  <si>
     <t>扩张模式</t>
   </si>
   <si>
-    <t>圈钱，养人，挖角，开分店</t>
-  </si>
-  <si>
     <t>人傻钱多</t>
   </si>
   <si>
-    <t>暴发户式的满足感</t>
-  </si>
-  <si>
     <t>淘氏卧底</t>
   </si>
   <si>
     <t>留下买路财</t>
   </si>
   <si>
-    <t>淘宝直通车等圈钱模式，保证金，扣点</t>
-  </si>
-  <si>
     <t>小二的一天</t>
   </si>
   <si>
-    <t>小二要考虑很多问题，销售和售后</t>
-  </si>
-  <si>
     <t>流水账之战</t>
   </si>
   <si>
-    <t>对于流水账的掠夺</t>
+    <t xml:space="preserve">苏轼 : 
+列奥纳多达芬奇 : 
+王阳明 : 
+本杰明富兰克林 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">尼古拉特斯拉 : 
+查理芒格 : 
+埃隆马斯克 : 
+百科式人生的五点浅见 : </t>
+  </si>
+  <si>
+    <t>互联网怪兽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类比分析 : 政府补贴   
+经济分析 : 4循环   
+生产力 : 提升生产效率降低成本才是出路   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">价格分析 : 
+商家态度 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">如何烧钱 : 补贴   营销成本   
+如何烧钱 : 流量   广告成本   
+如何烧钱 : 招聘   人力成本   
+如何烧钱 : 服务器   设备成本   
+烧的价值 : 4个对应所得   
+烧的价值 : 即使烧失败了，都还能算是提供了社会福利   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">野蛮生长 : 不点名批评饿了么的盲目扩张   
+野蛮生长 : 14年1000人扩张到4000人   
+野蛮生长 : A/B测试的例子   
+野蛮生长 : 替代性产品   
+步步为营 : 快速梯队化的培养模式   
+步步为营 : 培训并不是一件形式主义的工具   
+步步为营 : 提升组织内部效率的有效手段   
+步步为营 : 为出资人节约了成本   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">传统+互联网企业 : 传统企业的发展是先有商业模式再扩张   
+传统+互联网企业 : 确保局部盈利了再开分店   
+互联网+传统企业 : 新互联网企业的发展是先扩张再寻找商业模式   
+互联网+传统企业 : 不重视IP   
+互联网+传统企业 : 以圈用户为主   </t>
+  </si>
+  <si>
+    <t>中介平台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平台的附加收益 : 流量转换为广告   
+平台的附加收益 : 用户数据   
+本质是中介 : 始终会对销量挂钩   
+淘宝和其他服务网站的差别 : 淘宝催生了一种新的产业   
+淘宝和其他服务网站的差别 : 点评等等，并没有直接催生新的行业，对交易量的贡献也极其有限   </t>
+  </si>
+  <si>
+    <t>前浪后浪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地铁广告 : 地铁上不断变化的广告   
+地铁广告 : 房屋中介，职业中介   
+前浪死在沙滩上 : 烧死了一个，被下一个烧死   
+收割策略 : 外围观望，等待内场玩家烧钱养出了市场，然后再进行收割   </t>
+  </si>
+  <si>
+    <t>玩转刷单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315曝光了不少平台的混乱监管，惊闻其中一家已经融资数十亿打拼数年的平台14年开始采取补贴策略进行市场扩张，直到15年下半年才成立专门的风险控制部门，惊呆了 : 
+商家刷成交量 : 
+民商合作刷补贴 : 
+商家自己刷补贴 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">物流与GDP : 
+B2C和C2C对比 : B2C   更关注如何提升自身的仓储效率和配送点效率   
+B2C和C2C对比 : B2C   Amazon   
+B2C和C2C对比 : C2C   依靠价格竞争推广无理由退货，宠坏了消费者，钻漏洞   
+B2C和C2C对比 : C2C   Taobao/Tmall   
+B2C和C2C对比 : C2C   C2C的发货地点和仓库往往是固定的   
+合理趋势 : 2013年我国社会物流总费用超过10万亿元,占GDP比重为18%,是美国8.5%的2倍有余,物流成本明显偏高。   
+合理趋势 : 如果只是因为网络购物的火爆，而让大量的人力物力都投入到把商品搬来搬去这个过程，那么这样的经济结构是有风险的。   
+合理趋势 : 关键是提升效率   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">两部分价值 : 现有资产   
+两部分价值 : 未来成长空间   
+复利模型 : 
+传统估值 : 
+互联网估值 : 
+差异点 : 用未来市场的规模进行   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">感慨 : 商界大佬   国内更多是商界大佬而非企业家   
+感慨 : 暴发户   互联网新贵出了太多太多的创业型暴发户，有的成了，有的没成，但很多都是完全不靠谱的商业模式还在吹着故事   
+感慨 : 暴发户   但不管怎么说，正如《互联网怪兽》系列所讨论过的，即使一个公司创业失败，他或多或少也做了一些社会贡献，只是可能耗费了核心人员的时间还有浪费了一些不可再生资源   
+企业作用 : 资源调度工具   资金   
+企业作用 : 作为整体为员工提供资源   
+内外为家 : 对内员工   员工就像自己的孩子   
+内外为家 : 对外社会回馈   社会就像自己的父母   
+三个标准 : 对自己，是否有底线   
+三个标准 : 对员工，是否尽自己最大努力去为员工谋福利和稳定   
+三个标准 : 对社会，是否考虑回馈社会   
+企业十二字概括 : 以诚信   
+企业十二字概括 : 用策略   
+企业十二字概括 : 重内容   
+企业十二字概括 : 创价值   
+家八字概括 : 爱员工   
+家八字概括 : 报社会   </t>
+  </si>
+  <si>
+    <t>六过猿门而入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打字游戏 : 
+PCLogo : 
+幻灯片奇缘 : 
+Dreamweaver与Photoshop : 
+幻灯片孽缘 : 
+半路出家 : </t>
+  </si>
+  <si>
+    <t>以百变为不变</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章宗旨 : 简单的自我介绍   
+文章宗旨 : 走盘山公路爬山   
+百怪经历 : 六个春秋三个国家三个专业一个本科学位   
+百怪经历 : 设计、创业失败的经历   
+百变角色 : 
+百科思维 : 二八法则的百科应用   
+不变初心 : 逆流而上   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ误区 : 一直回避，很怕被这个数值不尽如人意   
+IQ误区 : 一直怀疑，号称测IQ很准的测试实在是太多了   
+IQ误区 : 一直质疑，IQ是静态而没有波动的嘛   
+学习速度的函数分析 : 对学习速度求导是什么？求积分是知识   
+学习速度的函数分析 : 求导就是学习能力，定义为驾驭自身学习速度的能力   
+联想自身 : 算术、心算能力远远不如刚上小学的时候   
+联想自身 : 刚进闵行理工的时候弱爆了，完全被身边各种搞竞赛出生或者高考大省前几百的尖子给完爆   
+联想自身 : 修炼多年之后，速度已经变态了   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">快速记忆 : 
+HIIT : 
+冥想 : 
+少量多餐 : 
+多项休息 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evernote,bitsync,mindmanager,excel,github,latex,微信电脑版,notepad++, 福利一xmlbar 福利二idm : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">onetab,fatkun,adblock,(evernote,idm,xmlbar),福利三netvideohunter : </t>
+  </si>
+  <si>
+    <t>立体式自媒体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以哲百科的运营方式 : 结合evernote+excel+github+python+weibo+mpwexin+latex   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">信息壁垒 : 现在随着网络，信息普及了，但是有效获取并利用信息的措施，才会成为以后的核心优势   
+以哲读书的心得 : 学工程，旨在大致了解技术，同时体会科学理念转为实用技术的过程。   
+以哲读书的心得 : 学编程，旨在把握时代的热点，去观察传统领域与互联网时代的交汇。   
+以哲读书的心得 : 学数学，旨在享受纯粹的理性美，并以之作为高效的跨领域连接器。   
+以哲读书的心得 : 学经济，旨在更了解市场的供需关系，借以预判产业的发展局势。   
+以哲读书的心得 : 学会计，旨在弄清楚资金流和财务规则，方便进行实际的资产财务控制。   
+以哲读书的心得 : 学管理，旨在构思动态且适应性强的组织模式，便于组建良好的团队。   
+以哲读书的心得 : 学法律，旨在了解群体的人为规则，摸索合情合理合法的出路。   </t>
+  </si>
+  <si>
+    <t>商海维艰</t>
+  </si>
+  <si>
+    <t>麻将馆与股市</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻将馆 : 
+类比股市 : 股市谋利的人是两批，股民其实是在打麻将   
+幕后赢家 : </t>
+  </si>
+  <si>
+    <t>神级投资回报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">案例 : 央视于318日曝光的北油所和其会员的诈骗案件   
+案例 : 利润   万分之三的扣点一个月就有6000多万   
+金矿类比 : 从心理学的角度出发，如果发现了一个金矿，那么最优先的行为是自己去挖，挖不过来的话只会叫上很熟的亲友一起去挖   
+金矿类比 : 叫陌生人也来挖，那就是一种非常反常的心理了   
+金矿类比 : 而且来金矿挖掘的人越多，那么大家能分到的利益越少   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">农村：小微、传统、小本买卖；城市：巨头，互联网，资本游戏 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">精准营销，换位思考 : </t>
+  </si>
+  <si>
+    <t>亲爹落草之日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谷大哥和果大叔不断升级软硬件的 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">金钱观教育的二三事 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">性教育二三事 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">同学聚会，人力问题，商业问题 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">性别歧视，地域歧视，智力歧视 : </t>
+  </si>
+  <si>
+    <t>好大大鸡汤</t>
+  </si>
+  <si>
+    <t>世界篇</t>
+  </si>
+  <si>
+    <t>鸡汤前十碗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">风林火山 : 激情如火，善变如水，随性如风，迅捷如雷，神秘如影，不动如峰。——以哲中二时期的幻想   
+风林火山 : 其疾如风，其徐如林，侵掠如火，不动如山，难知如阴，动如震雷。——孙子兵法-军争篇   
+冷暖自知 : 如鱼饮水，冷暖自知。   
+冷暖自知 : 即便拥有强大的分析推理能力，也只能揣摩事情的前因后果，而不可能去替代他人去真实地感受一回生活本身。   
+舍尔后得 : 企图不劳而获的人往往会种下祸端，而不舍得付出代价的人又往往会束手束脚。   
+舍尔后得 : 因而明确了自己要付出的代价，豁出去，才可能轻松地不断接近收获的喜悦。   
+再思而行 : 季文子三思而后行，子闻之。曰“再。斯可矣”——论语   
+再思而行 : 不假思索地做事容易冒进，考虑过为缜密又容易错失良机，因此不妨再思即行。   
+动态人格 : 
+分而治之 : 将一个大问题，分解成彼此相关的几个小问题，再针对每一个小问题对症下药，那么大问题也解决了。   
+分而治之 : 根据不同的成因，来选择不同的解决方案。   
+自因自果 : 发生在个人身上的事情，往往都可以追溯到早先的某个时间，从而找到发生原因。   
+自因自果 : 既然因果规律不被人的意志所左右，那么遇到挫折与其对外推卸责任，不如从内寻找突破点和改进空间。   
+积极入世 : 小隐隐于野，中隐隐于市，大隐隐于朝。——道家哲学思想   
+积极入世 : 或许，积极地融入社会并谋求一番作为，这样的功德，比隐姓埋名打坐禅的功德，大那么一些。   
+顺其自然 : 顺期自然不是得过且过，因循苟且。而是穷天理、尽道性，以至于命。   
+辩证统一 : 人越是成长，越要学会让看似矛盾的思想、观念，和谐地共存于心中。   
+辩证统一 : 每一个规律、规则都有其适用的范围和情境，因而需要学会在合适的时机采用合适的观点。   </t>
+  </si>
+  <si>
+    <t>中十碗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">情绪过滤 : 生活中会遇到很多源于外界的负能量，哪怕是亲人的关爱都可以因为失当而变成压力般的负能量。   
+情绪过滤 : 因而需要掌握主动过滤情绪的能力，去淡化负能量、负面情绪对自身心境起伏的影响。   
+以身作则 : 
+适度关心 : 
+避其锋芒 : 
+理性翻篇 : </t>
+  </si>
+  <si>
+    <t>效能煲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">化整为零 : 
+化零为整 : 
+避繁逐简 : 去形式化   </t>
+  </si>
+  <si>
+    <t>后十碗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信息黑体 : 用黑体辐射理想实验来类比   
+统计规律 : 统计规律描述的是总体分布情况以及个体现象的发生概率。   
+统计规律 : 个体情况不能代表总体，更不能草率地用平均主义去衡量个体。   
+剃刀原理 : 如果对于同一现象有两种或多种不同的假说，应该采取比较简单或可证伪的那一种。   
+剃刀原理 : 世界客观存在即是建立在客观实践之上，正所谓实践是检验真理的唯一标准。   
+二八法则 : 
+超人哲学 : 
+时间成本 : 对于每一件事情，时间成本是衡量一件事   
+加速世界 : 
+准入门槛 : 
+加减思维 : 
+逆向排除 : </t>
+  </si>
+  <si>
+    <t>商业煲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳不思考 : 时下热点，若从零开始则难以追上。
+时下热点延伸出的下个热点，要追上则需快马加鞭。
+不如利用充足的时间去思考和准备，时下热点延伸出的下个热点，又能延伸出什么热点？   
+合理外包 : 不同人的时间成本不同，因此不同工作需要由最合适的人去处理，避免独自包揽所有工作。   </t>
+  </si>
+  <si>
+    <t>走近理发店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拼命劝消费，防不慎防的消费 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">圈钱，养人，挖角，开分店 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">暴发户式的满足感 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">淘宝直通车等圈钱模式，保证金，扣点 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">小二要考虑很多问题，销售和售后 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">对于流水账的掠夺 : </t>
+  </si>
+  <si>
+    <t>创业迷途</t>
+  </si>
+  <si>
+    <t>成本估算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">误区和常见骗术 : 一上来就谈出多少资金的，多半是   
+核心点 : 估算出项目收支平衡甚至开始盈利前需要的时间，用这个时间再估算出盈利前所需要
+投入的设备运营、人工薪资这两个主要成本，反过来确定创始人的出资和股份分配比例   </t>
   </si>
 </sst>
 </file>
@@ -371,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,6 +548,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -698,761 +870,742 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="57">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="57">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:6" ht="42.75">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="85.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="114">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="71.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="85.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="71.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="85.5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="199.5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="85.5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="299.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="85.5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="99.75">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="156.75">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E17" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="71.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
+      <c r="E18" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="299.25">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="42.75">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="C23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="99.75">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
+      <c r="C24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
+      <c r="C25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
+      <c r="C26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:5" hidden="1">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
+      <c r="C27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" hidden="1">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
+      <c r="C29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
+      <c r="D30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" t="s">
-        <v>31</v>
+      <c r="C31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="C32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="409.5">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="C33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="142.5">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="C34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="42.75">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="C35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="256.5">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="C36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="99.75">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" t="s">
-        <v>74</v>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" t="s">
-        <v>76</v>
+      <c r="C38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" t="s">
-        <v>78</v>
+      <c r="C39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" t="s">
-        <v>81</v>
+      <c r="C40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-      <c r="C41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" t="s">
-        <v>83</v>
+      <c r="C41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" t="s">
-        <v>85</v>
+      <c r="C42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="C43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="85.5">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" t="s">
-        <v>92</v>
+      <c r="C44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
